--- a/out/artifacts/unnamed2/upload/质量计划说明.xlsx
+++ b/out/artifacts/unnamed2/upload/质量计划说明.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sundaiyue/Desktop/eqm/out/artifacts/eqm_war_exploded/upload/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF593629-F48D-AC44-B635-6FC76DA7267E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21300" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="质量计划新" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">质量计划新!$L$8:$N$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">质量计划新!$L$8:$N$67</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">质量计划新!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
   <si>
     <t>Date</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -864,11 +867,69 @@
   <si>
     <t>GB/T18442-2011;设计图样</t>
   </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊材料现场抽查标记移植</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-409]mmm\.dd\,yyyy;@"/>
@@ -1303,19 +1364,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1600,13 +1648,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1646,276 +1709,248 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1924,7 +1959,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1933,223 +1968,228 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2166,96 +2206,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="开具试压单"/>
-      <sheetName val="kk"/>
-      <sheetName val="输入"/>
-      <sheetName val="压力试验通知单"/>
-      <sheetName val="气压（气液组合）试验过程卡"/>
-      <sheetName val="液压试验过程卡"/>
-      <sheetName val="封面"/>
-      <sheetName val="产品合格证"/>
-      <sheetName val="真空考核报告"/>
-      <sheetName val="真空检测报告"/>
-      <sheetName val="vaccum"/>
-      <sheetName val="产品数据表"/>
-      <sheetName val="质量计划"/>
-      <sheetName val="焊工材料跟踪"/>
-      <sheetName val="焊接记录"/>
-      <sheetName val="试板报告"/>
-      <sheetName val="压力容器外观及几何尺寸检验报告"/>
-      <sheetName val="液压试验报告"/>
-      <sheetName val="气压试验报告1"/>
-      <sheetName val="气压试验报告2"/>
-      <sheetName val="气密性1"/>
-      <sheetName val="气密性2"/>
-      <sheetName val="补强圈气密性"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="清洁度报告"/>
-      <sheetName val="反馈单"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>17R051</v>
-          </cell>
-          <cell r="I3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4" t="str">
-            <v>HTD10F3.000</v>
-          </cell>
-          <cell r="I4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>43010</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52" t="str">
-            <v>W</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2301,7 +2251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2353,7 +2303,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2547,226 +2497,214 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61:G61"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.2">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:14" ht="19">
+      <c r="A1" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84" t="str">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76" t="str">
         <f>"编号："&amp;C3</f>
-        <v>编号：17R051</v>
-      </c>
-      <c r="N2" s="85"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.4" thickTop="1">
-      <c r="A3" s="86" t="s">
+        <v>编号：</v>
+      </c>
+      <c r="N2" s="77"/>
+    </row>
+    <row r="3" spans="1:14" ht="16" thickTop="1">
+      <c r="A3" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88" t="str">
-        <f>[1]输入!C3</f>
-        <v>17R051</v>
-      </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="38" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="92">
-        <f>[1]输入!I3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="38" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="94" t="str">
-        <f>[1]输入!E4</f>
-        <v>HTD10F3.000</v>
-      </c>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
     </row>
     <row r="4" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="37" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="113">
-        <f>[1]输入!I4</f>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="66"/>
+      <c r="I5" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="96"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="60"/>
+      <c r="N7" s="61"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="22">
         <v>1</v>
       </c>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="104"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="67"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" s="68"/>
-      <c r="N7" s="69"/>
-    </row>
-    <row r="8" spans="1:14" ht="14.4">
-      <c r="A8" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="31">
-        <v>1</v>
-      </c>
-      <c r="M8" s="30">
+      <c r="M8" s="21">
         <v>2</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="20">
         <v>3</v>
       </c>
     </row>
@@ -2774,1471 +2712,1530 @@
       <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="15" t="s">
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="14"/>
+      <c r="N9" s="164"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1">
       <c r="A10" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="57" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="15" t="s">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="14"/>
+      <c r="N10" s="164"/>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1">
       <c r="A11" s="13">
         <v>3</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="57" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="s">
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="14"/>
+      <c r="N11" s="164"/>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1">
       <c r="A12" s="13">
         <v>4</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="57" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="15" t="s">
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="14"/>
+      <c r="N12" s="164"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1">
       <c r="A13" s="13">
         <v>5</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="57" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="15" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="14"/>
+      <c r="N13" s="164"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1">
       <c r="A14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="57" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="15" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="14"/>
+      <c r="N14" s="164"/>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1">
       <c r="A15" s="13">
         <v>7</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N15" s="14"/>
+      <c r="N15" s="164"/>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1">
       <c r="A16" s="13">
         <v>8</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="57" t="s">
+      <c r="B16" s="108"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="15" t="s">
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="14"/>
+      <c r="N16" s="164"/>
     </row>
     <row r="17" spans="1:14" ht="21.75" customHeight="1">
       <c r="A17" s="13">
         <v>9</v>
       </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="57" t="s">
+      <c r="B17" s="108"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="15" t="s">
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N17" s="14"/>
+      <c r="N17" s="164"/>
     </row>
     <row r="18" spans="1:14" ht="21.75" customHeight="1">
       <c r="A18" s="13">
         <v>10</v>
       </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="57" t="s">
+      <c r="B18" s="108"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="15" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="14"/>
+      <c r="N18" s="164"/>
     </row>
     <row r="19" spans="1:14" ht="21.75" customHeight="1">
       <c r="A19" s="13">
         <v>11</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="22" t="s">
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="14"/>
+      <c r="N19" s="164"/>
     </row>
     <row r="20" spans="1:14" ht="21.75" customHeight="1">
       <c r="A20" s="13">
         <v>12</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="57" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="14"/>
+      <c r="N20" s="164"/>
     </row>
     <row r="21" spans="1:14" ht="21.75" customHeight="1">
       <c r="A21" s="13">
         <v>13</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="57" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="22" t="s">
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="14"/>
+      <c r="N21" s="164"/>
     </row>
     <row r="22" spans="1:14" ht="21.75" customHeight="1">
       <c r="A22" s="13">
         <v>14</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="57" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="22" t="s">
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="14"/>
+      <c r="N22" s="164"/>
     </row>
     <row r="23" spans="1:14" ht="21.75" customHeight="1">
       <c r="A23" s="13">
         <v>15</v>
       </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="57" t="s">
+      <c r="B23" s="98"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="22" t="s">
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="14"/>
+      <c r="N23" s="164"/>
     </row>
     <row r="24" spans="1:14" ht="21.75" customHeight="1">
       <c r="A24" s="13">
         <v>16</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="57" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="14"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="164"/>
     </row>
     <row r="25" spans="1:14" ht="21.75" customHeight="1">
       <c r="A25" s="13">
         <v>17</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N25" s="14"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="164"/>
     </row>
     <row r="26" spans="1:14" ht="21.75" customHeight="1">
       <c r="A26" s="13">
         <v>18</v>
       </c>
-      <c r="B26" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="124" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="136" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="14"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="164"/>
     </row>
     <row r="27" spans="1:14" ht="21.75" customHeight="1">
       <c r="A27" s="13">
         <v>19</v>
       </c>
-      <c r="B27" s="134"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="118" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="14"/>
+      <c r="B27" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="128" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="164"/>
     </row>
     <row r="28" spans="1:14" ht="21.75" customHeight="1">
       <c r="A28" s="13">
         <v>20</v>
       </c>
-      <c r="B28" s="134"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="14"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="164"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
       <c r="A29" s="13">
         <v>21</v>
       </c>
-      <c r="B29" s="134"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N29" s="14"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="164"/>
     </row>
     <row r="30" spans="1:14" ht="21.75" customHeight="1">
       <c r="A30" s="13">
         <v>22</v>
       </c>
-      <c r="B30" s="134"/>
-      <c r="C30" s="117" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" s="14"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="164"/>
     </row>
     <row r="31" spans="1:14" ht="21.75" customHeight="1">
       <c r="A31" s="13">
         <v>23</v>
       </c>
-      <c r="B31" s="134"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="15" t="s">
+      <c r="B31" s="126"/>
+      <c r="C31" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="14"/>
+      <c r="N31" s="164"/>
     </row>
     <row r="32" spans="1:14" ht="21.75" customHeight="1">
       <c r="A32" s="13">
         <v>24</v>
       </c>
-      <c r="B32" s="134"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="14"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="164"/>
     </row>
     <row r="33" spans="1:14" ht="21.75" customHeight="1">
       <c r="A33" s="13">
         <v>25</v>
       </c>
-      <c r="B33" s="134"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="14"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="164"/>
     </row>
     <row r="34" spans="1:14" ht="21.75" customHeight="1">
       <c r="A34" s="13">
         <v>26</v>
       </c>
-      <c r="B34" s="134"/>
-      <c r="C34" s="139" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="22" t="s">
+      <c r="B34" s="126"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="166" t="s">
+        <v>128</v>
+      </c>
+      <c r="M34" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N34" s="14"/>
+      <c r="N34" s="164"/>
     </row>
     <row r="35" spans="1:14" ht="21.75" customHeight="1">
       <c r="A35" s="13">
         <v>27</v>
       </c>
-      <c r="B35" s="134"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="14"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="164"/>
     </row>
     <row r="36" spans="1:14" ht="21.75" customHeight="1">
       <c r="A36" s="13">
         <v>28</v>
       </c>
-      <c r="B36" s="134"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="14"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="164"/>
     </row>
     <row r="37" spans="1:14" ht="21.75" customHeight="1">
       <c r="A37" s="13">
         <v>29</v>
       </c>
-      <c r="B37" s="135"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="15" t="s">
+      <c r="B37" s="126"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="14"/>
+      <c r="N37" s="164"/>
     </row>
     <row r="38" spans="1:14" ht="21.75" customHeight="1">
       <c r="A38" s="13">
         <v>30</v>
       </c>
-      <c r="B38" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N38" s="14"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="164"/>
     </row>
     <row r="39" spans="1:14" ht="21.75" customHeight="1">
       <c r="A39" s="13">
         <v>31</v>
       </c>
-      <c r="B39" s="106"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="15" t="s">
+      <c r="B39" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M39" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N39" s="14"/>
+      <c r="N39" s="164"/>
     </row>
     <row r="40" spans="1:14" ht="21.75" customHeight="1">
       <c r="A40" s="13">
         <v>32</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="15" t="s">
+      <c r="B40" s="98"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M40" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="14"/>
+      <c r="N40" s="164"/>
     </row>
     <row r="41" spans="1:14" ht="21.75" customHeight="1">
       <c r="A41" s="13">
         <v>33</v>
       </c>
-      <c r="B41" s="106"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="15" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="M41" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N41" s="14"/>
+      <c r="N41" s="164"/>
     </row>
     <row r="42" spans="1:14" ht="21.75" customHeight="1">
       <c r="A42" s="13">
         <v>34</v>
       </c>
-      <c r="B42" s="107"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="15" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M42" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N42" s="14"/>
+      <c r="N42" s="164"/>
     </row>
     <row r="43" spans="1:14" ht="21.75" customHeight="1">
       <c r="A43" s="13">
         <v>35</v>
       </c>
-      <c r="B43" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="117" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="118" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N43" s="14"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" s="164"/>
     </row>
     <row r="44" spans="1:14" ht="21.75" customHeight="1">
       <c r="A44" s="13">
         <v>36</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N44" s="14"/>
+      <c r="B44" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="164"/>
     </row>
     <row r="45" spans="1:14" ht="21.75" customHeight="1">
       <c r="A45" s="13">
         <v>37</v>
       </c>
-      <c r="B45" s="106"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="14"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="164"/>
     </row>
     <row r="46" spans="1:14" ht="21.75" customHeight="1">
       <c r="A46" s="13">
         <v>38</v>
       </c>
-      <c r="B46" s="106"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="43"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="44"/>
       <c r="I46" s="44"/>
       <c r="J46" s="44"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46" s="14"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="164"/>
     </row>
     <row r="47" spans="1:14" ht="21.75" customHeight="1">
       <c r="A47" s="13">
         <v>39</v>
       </c>
-      <c r="B47" s="107"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="15" t="s">
+      <c r="B47" s="98"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="14"/>
+      <c r="N47" s="164"/>
     </row>
     <row r="48" spans="1:14" ht="21.75" customHeight="1">
       <c r="A48" s="13">
         <v>40</v>
       </c>
-      <c r="B48" s="142" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="146" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="15" t="s">
+      <c r="B48" s="99"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="14"/>
+      <c r="N48" s="164"/>
     </row>
     <row r="49" spans="1:14" ht="21.75" customHeight="1">
       <c r="A49" s="13">
         <v>41</v>
       </c>
-      <c r="B49" s="142"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N49" s="14"/>
+      <c r="B49" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="138" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="164"/>
     </row>
     <row r="50" spans="1:14" ht="21.75" customHeight="1">
       <c r="A50" s="13">
         <v>42</v>
       </c>
-      <c r="B50" s="142"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="22" t="s">
+      <c r="B50" s="134"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N50" s="14"/>
+      <c r="N50" s="164"/>
     </row>
     <row r="51" spans="1:14" ht="21.75" customHeight="1">
       <c r="A51" s="13">
         <v>43</v>
       </c>
-      <c r="B51" s="142"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="149"/>
-      <c r="K51" s="149"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="15" t="s">
+      <c r="B51" s="134"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M51" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N51" s="14"/>
+      <c r="N51" s="164"/>
     </row>
     <row r="52" spans="1:14" ht="21.75" customHeight="1">
       <c r="A52" s="13">
         <v>44</v>
       </c>
-      <c r="B52" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="143" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="145"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="131"/>
-      <c r="K52" s="132"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="N52" s="14"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="164"/>
     </row>
     <row r="53" spans="1:14" ht="21.75" customHeight="1">
       <c r="A53" s="13">
         <v>45</v>
       </c>
-      <c r="B53" s="142"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="143" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="132"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="22" t="s">
+      <c r="B53" s="134" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="124"/>
+      <c r="L53" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M53" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N53" s="14"/>
+      <c r="N53" s="164"/>
     </row>
     <row r="54" spans="1:14" ht="21.75" customHeight="1">
       <c r="A54" s="13">
         <v>46</v>
       </c>
-      <c r="B54" s="142"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="144"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="130"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="131"/>
-      <c r="K54" s="132"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="22" t="s">
+      <c r="B54" s="134"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="135" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M54" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N54" s="14"/>
+      <c r="N54" s="164"/>
     </row>
     <row r="55" spans="1:14" ht="21.75" customHeight="1">
       <c r="A55" s="13">
         <v>47</v>
       </c>
-      <c r="B55" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="139" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="130"/>
-      <c r="I55" s="131"/>
-      <c r="J55" s="131"/>
-      <c r="K55" s="132"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N55" s="14"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="135" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="136"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M55" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N55" s="164"/>
     </row>
     <row r="56" spans="1:14" ht="21.75" customHeight="1">
       <c r="A56" s="13">
         <v>48</v>
       </c>
-      <c r="B56" s="142"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="131"/>
-      <c r="J56" s="131"/>
-      <c r="K56" s="132"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="15" t="s">
+      <c r="B56" s="134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="123"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N56" s="14"/>
+      <c r="N56" s="164"/>
     </row>
     <row r="57" spans="1:14" ht="21.75" customHeight="1">
       <c r="A57" s="13">
         <v>49</v>
       </c>
-      <c r="B57" s="142"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="131"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="15" t="s">
+      <c r="B57" s="134"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="123"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N57" s="14"/>
+      <c r="N57" s="164"/>
     </row>
     <row r="58" spans="1:14" ht="21.75" customHeight="1">
       <c r="A58" s="13">
         <v>50</v>
       </c>
-      <c r="B58" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="118" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N58" s="14"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="112"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="123"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="164"/>
     </row>
     <row r="59" spans="1:14" ht="21.75" customHeight="1">
       <c r="A59" s="13">
         <v>51</v>
       </c>
-      <c r="B59" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="143" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="144"/>
-      <c r="F59" s="144"/>
-      <c r="G59" s="145"/>
-      <c r="H59" s="130"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="131"/>
-      <c r="K59" s="132"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N59" s="14"/>
+      <c r="B59" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="164"/>
     </row>
     <row r="60" spans="1:14" ht="21.75" customHeight="1">
       <c r="A60" s="13">
         <v>52</v>
       </c>
-      <c r="B60" s="106"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-      <c r="G60" s="145"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="131"/>
-      <c r="K60" s="132"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="15" t="s">
+      <c r="B60" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="136"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="123"/>
+      <c r="J60" s="123"/>
+      <c r="K60" s="124"/>
+      <c r="L60" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M60" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N60" s="14"/>
+      <c r="N60" s="164"/>
     </row>
     <row r="61" spans="1:14" ht="21.75" customHeight="1">
       <c r="A61" s="13">
         <v>53</v>
       </c>
-      <c r="B61" s="106"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="130"/>
-      <c r="I61" s="131"/>
-      <c r="J61" s="131"/>
-      <c r="K61" s="132"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="15" t="s">
+      <c r="B61" s="98"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="136"/>
+      <c r="F61" s="136"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="123"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M61" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N61" s="14"/>
+      <c r="N61" s="164"/>
     </row>
     <row r="62" spans="1:14" ht="21.75" customHeight="1">
       <c r="A62" s="13">
         <v>54</v>
       </c>
-      <c r="B62" s="107"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="143" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="144"/>
-      <c r="F62" s="144"/>
-      <c r="G62" s="145"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="131"/>
-      <c r="J62" s="131"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" s="14"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="111"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="123"/>
+      <c r="J62" s="123"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62" s="164"/>
     </row>
     <row r="63" spans="1:14" ht="21.75" customHeight="1">
       <c r="A63" s="13">
         <v>55</v>
       </c>
-      <c r="B63" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="176" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="150"/>
-      <c r="E63" s="150"/>
-      <c r="F63" s="150"/>
-      <c r="G63" s="151"/>
-      <c r="H63" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="152"/>
-      <c r="J63" s="152"/>
-      <c r="K63" s="152"/>
-      <c r="L63" s="153" t="str">
-        <f>[1]输入!D52</f>
-        <v>W</v>
-      </c>
-      <c r="M63" s="155"/>
-      <c r="N63" s="161"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="133"/>
+      <c r="D63" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="136"/>
+      <c r="F63" s="136"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="123"/>
+      <c r="J63" s="123"/>
+      <c r="K63" s="124"/>
+      <c r="L63" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M63" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="164"/>
     </row>
     <row r="64" spans="1:14" ht="21.75" customHeight="1">
       <c r="A64" s="13">
-        <v>55</v>
-      </c>
-      <c r="B64" s="175"/>
-      <c r="C64" s="177"/>
-      <c r="D64" s="163"/>
-      <c r="E64" s="163"/>
-      <c r="F64" s="163"/>
-      <c r="G64" s="164"/>
-      <c r="H64" s="165" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="142"/>
+      <c r="E64" s="142"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="143"/>
+      <c r="H64" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="144"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="144"/>
+      <c r="L64" s="168"/>
+      <c r="M64" s="169"/>
+      <c r="N64" s="170"/>
+    </row>
+    <row r="65" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A65" s="13">
+        <v>57</v>
+      </c>
+      <c r="B65" s="161"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="149"/>
+      <c r="E65" s="149"/>
+      <c r="F65" s="149"/>
+      <c r="G65" s="150"/>
+      <c r="H65" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="I64" s="166"/>
-      <c r="J64" s="166"/>
-      <c r="K64" s="167"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="156"/>
-      <c r="N64" s="162"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="12" t="s">
+      <c r="I65" s="152"/>
+      <c r="J65" s="152"/>
+      <c r="K65" s="153"/>
+      <c r="L65" s="168"/>
+      <c r="M65" s="169"/>
+      <c r="N65" s="170"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="168"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="11" t="s">
+      <c r="B66" s="154"/>
+      <c r="C66" s="155"/>
+      <c r="D66" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="10">
-        <f>[1]输入!C38-2</f>
-        <v>43008</v>
-      </c>
-      <c r="F65" s="9" t="s">
+      <c r="E66" s="10"/>
+      <c r="F66" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="172"/>
-      <c r="H65" s="7" t="s">
+      <c r="G66" s="158"/>
+      <c r="H66" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I65" s="8">
-        <f>E65</f>
-        <v>43008</v>
-      </c>
-      <c r="J65" s="7" t="s">
+      <c r="I66" s="8"/>
+      <c r="J66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K65" s="172"/>
-      <c r="L65" s="6" t="s">
+      <c r="K66" s="158"/>
+      <c r="L66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M65" s="157"/>
-      <c r="N65" s="158"/>
-    </row>
-    <row r="66" spans="1:14" ht="16.2" thickBot="1">
-      <c r="A66" s="5" t="s">
+      <c r="M66" s="145"/>
+      <c r="N66" s="146"/>
+    </row>
+    <row r="67" spans="1:14" ht="23" thickBot="1">
+      <c r="A67" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="170"/>
-      <c r="C66" s="171"/>
-      <c r="D66" s="4" t="s">
+      <c r="B67" s="156"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="3">
-        <f>E65</f>
-        <v>43008</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="E67" s="3"/>
+      <c r="F67" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G66" s="173"/>
-      <c r="H66" s="2" t="s">
+      <c r="G67" s="159"/>
+      <c r="H67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I66" s="3">
-        <f>I65</f>
-        <v>43008</v>
-      </c>
-      <c r="J66" s="2" t="s">
+      <c r="I67" s="3"/>
+      <c r="J67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K66" s="173"/>
-      <c r="L66" s="1" t="s">
+      <c r="K67" s="159"/>
+      <c r="L67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M66" s="159"/>
-      <c r="N66" s="160"/>
-    </row>
-    <row r="67" spans="1:14" ht="14.4" thickTop="1"/>
+      <c r="M67" s="147"/>
+      <c r="N67" s="148"/>
+    </row>
+    <row r="68" spans="1:14" ht="16" thickTop="1"/>
   </sheetData>
   <sheetProtection autoFilter="0"/>
-  <autoFilter ref="L8:N66"/>
-  <mergeCells count="163">
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:N66"/>
-    <mergeCell ref="N63:N64"/>
+  <autoFilter ref="L8:N67" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="165">
     <mergeCell ref="D64:G64"/>
     <mergeCell ref="H64:K64"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="M66:N67"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H48:K48"/>
     <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:G60"/>
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="H62:K62"/>
-    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H63:K63"/>
     <mergeCell ref="D61:G61"/>
     <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D50:G50"/>
     <mergeCell ref="D58:G58"/>
     <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
     <mergeCell ref="D44:G44"/>
     <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="D46:G46"/>
     <mergeCell ref="H55:K55"/>
-    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="H47:K47"/>
     <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="H58:K58"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="H42:K42"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B27:B38"/>
+    <mergeCell ref="D29:G29"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="C34:C37"/>
     <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D29:G29"/>
     <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H38:K38"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
-    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="D25:G25"/>
     <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B19:B26"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="C19:C26"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D21:G21"/>
@@ -4275,25 +4272,25 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H33:K33"/>
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.15748031496062992" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="92" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.31496062992125984" top="0.55118110236220474" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>